--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\Downloads\UCDavis\ECS\ECS_154b\Labs\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F5936-5474-422F-B762-F0AAF6AFD6C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF0C31-BB38-4D99-80BE-B7599F12667F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{D7C09C5D-200E-4F19-AE9D-45815103B8A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Present State</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>RegDst0</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>i-instr</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>Zimm</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>4A02</t>
   </si>
 </sst>
 </file>
@@ -259,11 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CCC7-8E0E-4179-86EF-9467E31DB893}">
-  <dimension ref="A1:V605"/>
+  <dimension ref="A1:Z606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,29 +619,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -1179,57 +1203,15 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>35</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>3</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1248,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1257,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
@@ -1269,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="M14" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="8">
         <v>1</v>
@@ -1286,7 +1268,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1298,13 +1280,31 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
       </c>
       <c r="M15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
@@ -1316,36 +1316,36 @@
         <v>0</v>
       </c>
       <c r="Q15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="8">
         <v>0</v>
@@ -1354,9 +1354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>17</v>
@@ -1389,9 +1389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1400,33 +1400,33 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1438,42 +1438,42 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>17</v>
@@ -1494,9 +1494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>17</v>
@@ -1529,21 +1529,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>10</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
@@ -1564,9 +1564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>17</v>
@@ -1599,44 +1599,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -1648,212 +1648,218 @@
         <v>0</v>
       </c>
       <c r="E25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="6">
+        <v>14</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>512</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>256</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>128</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>64</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>32</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>16</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>8</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="11">
-        <v>1000000101001</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>1</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11">
-        <v>1100000000000</v>
+        <v>1000000101001</v>
       </c>
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
       <c r="G34" s="8">
@@ -1862,194 +1868,194 @@
       <c r="H34" s="8">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>0</v>
       </c>
       <c r="O34" s="8">
         <v>0</v>
       </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>0</v>
-      </c>
-      <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8">
-        <v>0</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11">
-        <v>10100000000000</v>
+        <v>1100000000000</v>
       </c>
       <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
         <v>1</v>
       </c>
       <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
         <v>0</v>
       </c>
       <c r="O35" s="8">
         <v>0</v>
       </c>
-      <c r="P35" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="8">
-        <v>3</v>
+      <c r="B36" s="10">
+        <v>2</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11">
-        <v>1100</v>
+        <v>10100000000000</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>0</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
       </c>
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>0</v>
       </c>
       <c r="O36" s="8">
         <v>0</v>
       </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0</v>
-      </c>
-      <c r="S36" s="8">
-        <v>1</v>
-      </c>
-      <c r="T36" s="8">
-        <v>1</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11">
-        <v>100000001000000</v>
+        <v>1100</v>
       </c>
       <c r="E37" s="11">
         <v>0</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
@@ -2073,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="8">
         <v>0</v>
@@ -2085,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="8">
         <v>0</v>
@@ -2100,20 +2106,20 @@
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11">
-        <v>10100</v>
+        <v>100000001000000</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="14">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
       </c>
       <c r="H38" s="8">
         <v>0</v>
@@ -2137,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="8">
         <v>0</v>
@@ -2146,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="R38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="8">
         <v>0</v>
       </c>
       <c r="T38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="8">
         <v>0</v>
@@ -2164,23 +2170,23 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11">
-        <v>10001000000000</v>
+        <v>10100</v>
       </c>
       <c r="E39" s="11">
         <v>0</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
         <v>0</v>
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>0</v>
@@ -2210,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="8">
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="8">
         <v>0</v>
@@ -2228,23 +2234,23 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11">
-        <v>1100000000000000</v>
+        <v>10001000000000</v>
       </c>
       <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="8">
         <v>0</v>
@@ -2292,23 +2298,23 @@
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11">
-        <v>10010100000010</v>
+        <v>1100000000000000</v>
       </c>
       <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8">
         <v>0</v>
@@ -2317,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="8">
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="8">
         <v>0</v>
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="8">
         <v>0</v>
@@ -2356,23 +2362,23 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11">
-        <v>10000001</v>
+        <v>10010100000010</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="8">
         <v>0</v>
@@ -2381,16 +2387,16 @@
         <v>0</v>
       </c>
       <c r="K42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="8">
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="8">
         <v>0</v>
@@ -2411,24 +2417,26 @@
         <v>0</v>
       </c>
       <c r="U42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="11">
+        <v>10000001</v>
+      </c>
       <c r="E43" s="11">
         <v>0</v>
       </c>
-      <c r="F43" s="14">
-        <v>1</v>
+      <c r="F43" s="13">
+        <v>0</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -2458,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="8">
         <v>0</v>
@@ -2481,26 +2489,28 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="B44" s="8">
+        <v>10</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
-        <v>0</v>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="8">
         <v>0</v>
@@ -2512,13 +2522,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="8">
         <v>0</v>
       </c>
       <c r="P44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="8">
         <v>0</v>
@@ -2536,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -2544,16 +2554,60 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8">
+        <v>0</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
@@ -2603,7 +2657,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2619,267 +2673,1120 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="10">
+        <v>0</v>
+      </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D51" s="11">
+        <v>1000000101001</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="10">
+        <v>1</v>
+      </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D52" s="11">
+        <v>1100000000000</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>1</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D53" s="11">
+        <v>10100000000000</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="8">
+        <v>3</v>
+      </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D54" s="11">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="8">
+        <v>1</v>
+      </c>
+      <c r="U54" s="8">
+        <v>1</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0</v>
+      </c>
+      <c r="W54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="8">
+        <v>4</v>
+      </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D55" s="11">
+        <v>100000001000000</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0</v>
+      </c>
+      <c r="W55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="8">
+        <v>5</v>
+      </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D56" s="11">
+        <v>10100</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8">
+        <v>1</v>
+      </c>
+      <c r="T56" s="8">
+        <v>0</v>
+      </c>
+      <c r="U56" s="8">
+        <v>1</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0</v>
+      </c>
+      <c r="W56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="8">
+        <v>6</v>
+      </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D57" s="11">
+        <v>10001000000000</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
+        <v>1</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="8">
+        <v>0</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="8">
+        <v>7</v>
+      </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D58" s="11">
+        <v>1100000000000000</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>1</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="8">
+        <v>0</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="8">
+        <v>8</v>
+      </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D59" s="11">
+        <v>10010100000010</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>1</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0</v>
+      </c>
+      <c r="N59" s="8">
+        <v>1</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8">
+        <v>0</v>
+      </c>
+      <c r="T59" s="8">
+        <v>0</v>
+      </c>
+      <c r="U59" s="8">
+        <v>0</v>
+      </c>
+      <c r="V59" s="8">
+        <v>1</v>
+      </c>
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="8">
+        <v>9</v>
+      </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D60" s="11">
+        <v>10000001</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0</v>
+      </c>
+      <c r="N60" s="8">
+        <v>0</v>
+      </c>
+      <c r="O60" s="8">
+        <v>1</v>
+      </c>
+      <c r="P60" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0</v>
+      </c>
+      <c r="S60" s="8">
+        <v>0</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0</v>
+      </c>
+      <c r="W60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="B61" s="8">
+        <v>10</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0</v>
+      </c>
+      <c r="O61" s="8">
+        <v>1</v>
+      </c>
+      <c r="P61" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>1</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0</v>
+      </c>
+      <c r="S61" s="8">
+        <v>0</v>
+      </c>
+      <c r="T61" s="8">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
+      <c r="V61" s="8">
+        <v>0</v>
+      </c>
+      <c r="W61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="8">
+        <v>11</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="S62" s="8">
+        <v>0</v>
+      </c>
+      <c r="T62" s="8">
+        <v>0</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0</v>
+      </c>
+      <c r="W62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="8">
+        <v>12</v>
+      </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0</v>
+      </c>
+      <c r="K63" s="8">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0</v>
+      </c>
+      <c r="P63" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="8">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8">
+        <v>0</v>
+      </c>
+      <c r="T63" s="8">
+        <v>0</v>
+      </c>
+      <c r="U63" s="8">
+        <v>0</v>
+      </c>
+      <c r="V63" s="8">
+        <v>0</v>
+      </c>
+      <c r="W63" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D64" s="11"/>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0</v>
+      </c>
+      <c r="P64" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8">
+        <v>0</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8">
+        <v>0</v>
+      </c>
+      <c r="W64" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D65" s="11"/>
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0</v>
+      </c>
+      <c r="P65" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="S65" s="8">
+        <v>0</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0</v>
+      </c>
+      <c r="W65" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -2891,7 +3798,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2907,7 +3814,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2923,7 +3830,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2939,7 +3846,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2955,7 +3862,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2971,7 +3878,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2987,7 +3894,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3003,7 +3910,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3019,7 +3926,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3035,7 +3942,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3051,7 +3958,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3067,7 +3974,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3083,7 +3990,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3099,7 +4006,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -11515,6 +12422,22 @@
       <c r="M605" s="10"/>
       <c r="N605" s="10"/>
     </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A606" s="10"/>
+      <c r="B606" s="10"/>
+      <c r="C606" s="10"/>
+      <c r="D606" s="10"/>
+      <c r="E606" s="10"/>
+      <c r="F606" s="10"/>
+      <c r="G606" s="10"/>
+      <c r="H606" s="10"/>
+      <c r="I606" s="10"/>
+      <c r="J606" s="10"/>
+      <c r="K606" s="10"/>
+      <c r="L606" s="10"/>
+      <c r="M606" s="10"/>
+      <c r="N606" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/Lab3/Lab3.xlsx
+++ b/Lab3/Lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\Downloads\UCDavis\ECS\ECS_154b\Labs\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF0C31-BB38-4D99-80BE-B7599F12667F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F6AED-B0B5-49F6-8BD1-A48456162656}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{D7C09C5D-200E-4F19-AE9D-45815103B8A9}"/>
   </bookViews>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CCC7-8E0E-4179-86EF-9467E31DB893}">
   <dimension ref="A1:Z606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
